--- a/RSummer.xlsx
+++ b/RSummer.xlsx
@@ -974,7 +974,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
